--- a/SimpleJoyRx_hw/SimpleJoyRx01BOM.xlsx
+++ b/SimpleJoyRx_hw/SimpleJoyRx01BOM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="SimpleJoyRx" localSheetId="0">Sheet1!$A$1:$M$45</definedName>
+    <definedName name="SimpleJoyRx" localSheetId="0">Sheet1!$A$1:$L$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
   <si>
     <t>Reference</t>
   </si>
@@ -134,9 +134,6 @@
     <t>18pF</t>
   </si>
   <si>
-    <t xml:space="preserve">C10 C11 C18 C19 C20 C21 C22 C23 C24 C25 C28 C29 C3 C31 C33 C34 C36 C37 C39 C4 C41 C42 C43 C5 C6 C7 </t>
-  </si>
-  <si>
     <t>0.1u</t>
   </si>
   <si>
@@ -233,24 +230,6 @@
     <t>DRV8835DSSR</t>
   </si>
   <si>
-    <t xml:space="preserve">DA3 DA4 DA5 DA6 DA8 DA9 </t>
-  </si>
-  <si>
-    <t>MC74VHC1</t>
-  </si>
-  <si>
-    <t>SOT:SOT23-5</t>
-  </si>
-  <si>
-    <t>https://www.terraelectronica.ru/catalog.php?ID=301&amp;search=m74vhc1gt125dt1g</t>
-  </si>
-  <si>
-    <t>M74VHC1GT125DT1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA7 </t>
-  </si>
-  <si>
     <t>MCP1700</t>
   </si>
   <si>
@@ -458,9 +437,6 @@
     <t>Connectors:PLS-6</t>
   </si>
   <si>
-    <t xml:space="preserve">XL10 XL11 XL12 XL13 XL16 XL9 </t>
-  </si>
-  <si>
     <t>PLS3</t>
   </si>
   <si>
@@ -522,6 +498,18 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10 C11 C18 C19 C20 C21 C24 C25 C28 C3 C31 C33 C36 C37 C39 C4 C41 C42 C43 C5 C6 C7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA3 DA7 </t>
+  </si>
+  <si>
+    <t>SOT:SOT23-3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XL10 XL11 XL12 XL13 XL15 XL16 XL19 XL20 XL21 XL9 </t>
   </si>
 </sst>
 </file>
@@ -880,25 +868,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -922,23 +910,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -960,10 +949,6 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>F2*D2</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -984,14 +969,10 @@
       <c r="F3">
         <v>45</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G46" si="0">F3*D3</f>
-        <v>45</v>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1014,10 +995,6 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1038,23 +1015,19 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1062,20 +1035,16 @@
       <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1086,20 +1055,16 @@
       <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1110,23 +1075,19 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1135,10 +1096,6 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1161,17 +1118,13 @@
       <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1185,20 +1138,16 @@
       <c r="F11">
         <v>0.5</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1209,29 +1158,25 @@
       <c r="F12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+      <c r="G12" t="s">
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
         <v>43</v>
-      </c>
-      <c r="L12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1242,29 +1187,25 @@
       <c r="F13">
         <v>2.4</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+      <c r="G13" t="s">
+        <v>45</v>
       </c>
       <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>47</v>
-      </c>
-      <c r="L13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1275,29 +1216,25 @@
       <c r="F14">
         <v>5.5</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="G14" t="s">
+        <v>52</v>
       </c>
       <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
         <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1308,236 +1245,194 @@
       <c r="F15">
         <v>95</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>190</v>
+      <c r="G15" t="s">
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>5.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="I16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>64</v>
-      </c>
-      <c r="F18">
-        <v>170</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-      <c r="I18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>140</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="I19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>85</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1548,20 +1443,16 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1572,125 +1463,105 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
       </c>
       <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>94</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27">
-        <v>29</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28">
-        <v>1.6</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>7.5</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
         <v>104</v>
       </c>
-      <c r="I29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -1701,20 +1572,16 @@
       <c r="F30">
         <v>0.5</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1725,17 +1592,13 @@
       <c r="F31">
         <v>0.5</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
@@ -1744,151 +1607,133 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>114</v>
       </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>27</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>120</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>121</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
         <v>122</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" t="s">
         <v>123</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>125</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>126</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1897,220 +1742,186 @@
         <v>6</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>9</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="F42">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>138</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
         <v>139</v>
       </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>0.5</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C43" t="s">
         <v>140</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
-      </c>
-      <c r="F43">
-        <v>46</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <v>155</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" ref="G3:G45" si="0">F45*D45</f>
+        <v>155</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="E46" s="5">
+        <f>SUM(E2:E44)</f>
+        <v>209</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46">
+        <f>SUM(G2:G45)</f>
         <v>155</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>155</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="5">
-        <f>SUM(E2:E45)</f>
-        <v>214</v>
-      </c>
-      <c r="G47">
-        <f>SUM(G2:G46)</f>
-        <v>1036.7</v>
-      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
